--- a/clientes 1.xlsx
+++ b/clientes 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{4B35EEE3-82BE-4FFC-ABD7-6035AF7A359E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{984DED11-F272-4578-B235-EE998BF11843}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{4B35EEE3-82BE-4FFC-ABD7-6035AF7A359E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C81207AA-A5AA-4C26-B3E0-543CE9AF304F}"/>
   <bookViews>
     <workbookView xWindow="288" yWindow="708" windowWidth="17280" windowHeight="8964" xr2:uid="{28E207E4-3566-49EB-9385-EDBCBAF3A49C}"/>
   </bookViews>
@@ -86,8 +86,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,12 +406,12 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -425,24 +426,24 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>85986843253</v>
+      <c r="B2" s="1">
+        <v>5585986843253</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>85989321235</v>
+      <c r="B3" s="1">
+        <v>5585989321235</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>85994253240</v>
+      <c r="B4" s="1">
+        <v>5585994253240</v>
       </c>
     </row>
   </sheetData>
